--- a/00-Administratif/01-ETIQUETTES + NOMBRE  NOTES SEMESTRIELLES/ELRE/ETIQUETTES NUMERIQUES/ELRE_NOTES.xlsx
+++ b/00-Administratif/01-ETIQUETTES + NOMBRE  NOTES SEMESTRIELLES/ELRE/ETIQUETTES NUMERIQUES/ELRE_NOTES.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27823"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TEXTES\EPSIC\ADMIN\ADMIN_DOMAINE_SANDRO\EXCEL_NOTES_DOMAINE_3\SHARE_POINT_ETIQUETTES_NUMERIQUES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zozma\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{BDB77F63-054F-4218-A66F-6281A655A851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F2FB59B-2ED4-46CA-A654-C0E01C507D66}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A3EA5C-9BD1-4BE0-96AA-A39AC289B883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{24446EAE-FF7B-4720-8461-B68F93A38A30}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{24446EAE-FF7B-4720-8461-B68F93A38A30}"/>
   </bookViews>
   <sheets>
     <sheet name="ELRE1_SEMESTRES_12" sheetId="14" r:id="rId1"/>
@@ -685,7 +685,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="23">
   <si>
     <t>Électricien/ne de réseau CFC</t>
   </si>
@@ -744,29 +744,23 @@
     <t>Semestre 6</t>
   </si>
   <si>
-    <t>Connaissances professionnelles 1</t>
-  </si>
-  <si>
-    <t>Connaissances professionnelles 2</t>
-  </si>
-  <si>
     <t>Connaissances professionnelles «CP»</t>
   </si>
   <si>
     <t>Semestres</t>
   </si>
   <si>
-    <t>Moyenne de «CP» 4 ans</t>
+    <t>Moyenne d'«ECG» 3 ans</t>
   </si>
   <si>
-    <t>Moyenne d'«ECG» 4 ans</t>
+    <t>Moyenne de «CP» 3 ans</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2268,17 +2262,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8282436-4E2C-455E-A39D-BDA0BF120069}">
   <dimension ref="A1:Z41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="9" width="8.7109375" customWidth="1"/>
-    <col min="26" max="26" width="11.5703125" style="15"/>
+    <col min="1" max="9" width="8.6640625" customWidth="1"/>
+    <col min="26" max="26" width="11.5546875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="45" customHeight="1">
+    <row r="1" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -2294,12 +2288,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="Z2" s="15">
         <v>5.5</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="5" customFormat="1" ht="25.15" customHeight="1">
+    <row r="3" spans="1:26" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -2313,12 +2307,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="Z4" s="15">
         <v>4.5</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="30" customHeight="1">
+    <row r="5" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>2</v>
       </c>
@@ -2334,12 +2328,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="Z6" s="15">
         <v>3.5</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
         <v>3</v>
       </c>
@@ -2361,12 +2355,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="Z8" s="15">
         <v>2.5</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
@@ -2384,7 +2378,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
@@ -2402,7 +2396,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
@@ -2416,7 +2410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="15" thickBot="1">
+    <row r="12" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
@@ -2427,7 +2421,7 @@
       <c r="H12" s="13"/>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:26" ht="15" thickBot="1">
+    <row r="13" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="13"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
@@ -2444,7 +2438,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>2</v>
       </c>
@@ -2459,7 +2453,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
@@ -2474,7 +2468,7 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
@@ -2485,7 +2479,7 @@
       <c r="H18" s="14"/>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="1:26" ht="15" thickBot="1">
+    <row r="19" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="13"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
@@ -2496,7 +2490,7 @@
       <c r="H19" s="13"/>
       <c r="I19" s="3"/>
     </row>
-    <row r="20" spans="1:26" ht="15" thickBot="1">
+    <row r="20" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
@@ -2513,7 +2507,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -2524,7 +2518,7 @@
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -2535,7 +2529,7 @@
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:26" ht="15" customHeight="1">
+    <row r="23" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -2547,7 +2541,7 @@
       <c r="I23" s="2"/>
       <c r="Z23" s="16"/>
     </row>
-    <row r="24" spans="1:26" ht="15" thickBot="1">
+    <row r="24" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -2558,7 +2552,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="1:26" ht="15.6" thickTop="1" thickBot="1">
+    <row r="25" spans="1:26" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>8</v>
       </c>
@@ -2579,8 +2573,8 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="15" thickTop="1"/>
-    <row r="27" spans="1:26" s="1" customFormat="1" ht="30" customHeight="1">
+    <row r="26" spans="1:26" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:26" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="18" t="s">
         <v>9</v>
       </c>
@@ -2594,7 +2588,7 @@
       <c r="I27" s="18"/>
       <c r="Z27" s="15"/>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>10</v>
       </c>
@@ -2609,7 +2603,7 @@
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="1:26">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
@@ -2620,7 +2614,7 @@
       <c r="H29" s="14"/>
       <c r="I29" s="3"/>
     </row>
-    <row r="30" spans="1:26" ht="15" thickBot="1">
+    <row r="30" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="13"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
@@ -2631,7 +2625,7 @@
       <c r="H30" s="13"/>
       <c r="I30" s="3"/>
     </row>
-    <row r="31" spans="1:26" ht="15" thickBot="1">
+    <row r="31" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="13"/>
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
@@ -2648,7 +2642,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:26">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>11</v>
       </c>
@@ -2663,7 +2657,7 @@
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="14"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -2674,7 +2668,7 @@
       <c r="H33" s="14"/>
       <c r="I33" s="3"/>
     </row>
-    <row r="34" spans="1:9" ht="15" thickBot="1">
+    <row r="34" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="13"/>
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
@@ -2685,7 +2679,7 @@
       <c r="H34" s="13"/>
       <c r="I34" s="3"/>
     </row>
-    <row r="35" spans="1:9" ht="15" thickBot="1">
+    <row r="35" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="13"/>
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
@@ -2702,7 +2696,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15" thickBot="1">
+    <row r="36" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -2713,7 +2707,7 @@
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
     </row>
-    <row r="37" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
+    <row r="37" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>12</v>
       </c>
@@ -2734,13 +2728,13 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15" thickTop="1"/>
-    <row r="40" spans="1:9">
+    <row r="38" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>14</v>
       </c>
@@ -2931,16 +2925,16 @@
   <dimension ref="A1:Z41"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="9" width="8.7109375" customWidth="1"/>
-    <col min="26" max="26" width="11.5703125" style="15"/>
+    <col min="1" max="9" width="8.6640625" customWidth="1"/>
+    <col min="26" max="26" width="11.5546875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="45" customHeight="1">
+    <row r="1" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -2956,12 +2950,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="Z2" s="15">
         <v>5.5</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="5" customFormat="1" ht="25.15" customHeight="1">
+    <row r="3" spans="1:26" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -2975,12 +2969,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="Z4" s="15">
         <v>4.5</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="30" customHeight="1">
+    <row r="5" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>2</v>
       </c>
@@ -2996,12 +2990,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="Z6" s="15">
         <v>3.5</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
         <v>15</v>
       </c>
@@ -3023,12 +3017,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="Z8" s="15">
         <v>2.5</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
@@ -3046,7 +3040,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
@@ -3064,7 +3058,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
@@ -3078,7 +3072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="15" thickBot="1">
+    <row r="12" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
@@ -3089,7 +3083,7 @@
       <c r="H12" s="13"/>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:26" ht="15" thickBot="1">
+    <row r="13" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="13"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
@@ -3106,7 +3100,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>2</v>
       </c>
@@ -3121,7 +3115,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
@@ -3136,7 +3130,7 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
@@ -3147,7 +3141,7 @@
       <c r="H18" s="14"/>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="1:26" ht="15" thickBot="1">
+    <row r="19" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="13"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
@@ -3158,7 +3152,7 @@
       <c r="H19" s="13"/>
       <c r="I19" s="3"/>
     </row>
-    <row r="20" spans="1:26" ht="15" thickBot="1">
+    <row r="20" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
@@ -3175,7 +3169,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -3186,7 +3180,7 @@
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -3197,7 +3191,7 @@
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:26" ht="15" customHeight="1">
+    <row r="23" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -3209,7 +3203,7 @@
       <c r="I23" s="2"/>
       <c r="Z23" s="16"/>
     </row>
-    <row r="24" spans="1:26" ht="15" thickBot="1">
+    <row r="24" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -3220,7 +3214,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="1:26" ht="15" thickBot="1">
+    <row r="25" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>8</v>
       </c>
@@ -3241,7 +3235,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:26" s="1" customFormat="1" ht="30" customHeight="1">
+    <row r="27" spans="1:26" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="18" t="s">
         <v>9</v>
       </c>
@@ -3255,7 +3249,7 @@
       <c r="I27" s="18"/>
       <c r="Z27" s="15"/>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>10</v>
       </c>
@@ -3270,7 +3264,7 @@
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="1:26">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
@@ -3281,7 +3275,7 @@
       <c r="H29" s="14"/>
       <c r="I29" s="3"/>
     </row>
-    <row r="30" spans="1:26" ht="15" thickBot="1">
+    <row r="30" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="13"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
@@ -3292,7 +3286,7 @@
       <c r="H30" s="13"/>
       <c r="I30" s="3"/>
     </row>
-    <row r="31" spans="1:26" ht="15" thickBot="1">
+    <row r="31" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="13"/>
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
@@ -3309,7 +3303,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:26">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -3322,7 +3316,7 @@
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="14"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -3333,7 +3327,7 @@
       <c r="H33" s="14"/>
       <c r="I33" s="3"/>
     </row>
-    <row r="34" spans="1:9" ht="15" thickBot="1">
+    <row r="34" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="13"/>
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
@@ -3344,7 +3338,7 @@
       <c r="H34" s="13"/>
       <c r="I34" s="3"/>
     </row>
-    <row r="35" spans="1:9" ht="15" thickBot="1">
+    <row r="35" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="13"/>
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
@@ -3361,7 +3355,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15" thickBot="1">
+    <row r="36" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -3372,7 +3366,7 @@
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
     </row>
-    <row r="37" spans="1:9" ht="15" thickBot="1">
+    <row r="37" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>12</v>
       </c>
@@ -3393,12 +3387,12 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>14</v>
       </c>
@@ -3618,16 +3612,16 @@
   <dimension ref="A1:Z41"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="9" width="8.7109375" customWidth="1"/>
-    <col min="26" max="26" width="11.5703125" style="15"/>
+    <col min="1" max="9" width="8.6640625" customWidth="1"/>
+    <col min="26" max="26" width="11.5546875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="45" customHeight="1">
+    <row r="1" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -3643,12 +3637,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="Z2" s="15">
         <v>5.5</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="5" customFormat="1" ht="25.15" customHeight="1">
+    <row r="3" spans="1:26" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -3662,12 +3656,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="Z4" s="15">
         <v>4.5</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="30" customHeight="1">
+    <row r="5" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>2</v>
       </c>
@@ -3683,12 +3677,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="Z6" s="15">
         <v>3.5</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
         <v>17</v>
       </c>
@@ -3710,21 +3704,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="Z8" s="15">
         <v>2.5</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -3733,13 +3727,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
-      <c r="A10" s="2"/>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -3747,7 +3745,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
       <c r="B11" s="14"/>
       <c r="C11" s="13"/>
@@ -3761,7 +3759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="15" thickBot="1">
+    <row r="12" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="14"/>
       <c r="B12" s="14"/>
       <c r="C12" s="13"/>
@@ -3772,7 +3770,7 @@
       <c r="H12" s="13"/>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:26" ht="15" thickBot="1">
+    <row r="13" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="13"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
@@ -3789,7 +3787,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -3800,7 +3798,7 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -3811,33 +3809,37 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:26">
-      <c r="A17" s="2"/>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="F17" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
@@ -3848,7 +3850,7 @@
       <c r="H18" s="14"/>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="1:26" ht="15" thickBot="1">
+    <row r="19" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="13"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
@@ -3859,7 +3861,7 @@
       <c r="H19" s="13"/>
       <c r="I19" s="3"/>
     </row>
-    <row r="20" spans="1:26" ht="15" thickBot="1">
+    <row r="20" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
@@ -3876,10 +3878,10 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="15" customHeight="1">
+    <row r="23" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="Z23" s="16"/>
     </row>
-    <row r="24" spans="1:26" ht="15" thickBot="1">
+    <row r="24" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -3890,7 +3892,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="1:26" ht="15.6" thickTop="1" thickBot="1">
+    <row r="25" spans="1:26" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>8</v>
       </c>
@@ -3911,8 +3913,8 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="15" thickTop="1"/>
-    <row r="27" spans="1:26" s="1" customFormat="1" ht="30" customHeight="1">
+    <row r="26" spans="1:26" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:26" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="18" t="s">
         <v>9</v>
       </c>
@@ -3926,7 +3928,7 @@
       <c r="I27" s="18"/>
       <c r="Z27" s="15"/>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>10</v>
       </c>
@@ -3941,7 +3943,7 @@
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="1:26">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
@@ -3952,7 +3954,7 @@
       <c r="H29" s="14"/>
       <c r="I29" s="3"/>
     </row>
-    <row r="30" spans="1:26" ht="15" thickBot="1">
+    <row r="30" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="13"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
@@ -3963,7 +3965,7 @@
       <c r="H30" s="13"/>
       <c r="I30" s="3"/>
     </row>
-    <row r="31" spans="1:26" ht="15" thickBot="1">
+    <row r="31" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="13"/>
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
@@ -3980,7 +3982,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:26">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>11</v>
       </c>
@@ -3995,7 +3997,7 @@
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="14"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -4006,7 +4008,7 @@
       <c r="H33" s="14"/>
       <c r="I33" s="3"/>
     </row>
-    <row r="34" spans="1:9" ht="15" thickBot="1">
+    <row r="34" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="13"/>
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
@@ -4017,7 +4019,7 @@
       <c r="H34" s="13"/>
       <c r="I34" s="3"/>
     </row>
-    <row r="35" spans="1:9" ht="15" thickBot="1">
+    <row r="35" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="13"/>
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
@@ -4034,7 +4036,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15" thickBot="1">
+    <row r="36" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -4045,7 +4047,7 @@
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
     </row>
-    <row r="37" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
+    <row r="37" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>12</v>
       </c>
@@ -4066,13 +4068,13 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15" thickTop="1"/>
-    <row r="40" spans="1:9">
+    <row r="38" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>14</v>
       </c>
@@ -4194,16 +4196,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A799CF54-4FED-421D-9D1B-92D66E0AA9DE}">
   <dimension ref="A1:V30"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="9" width="8.7109375" customWidth="1"/>
+    <col min="1" max="9" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="45" customHeight="1">
+    <row r="1" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -4216,7 +4218,7 @@
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
     </row>
-    <row r="3" spans="1:22" s="5" customFormat="1" ht="25.15" customHeight="1">
+    <row r="3" spans="1:22" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -4227,9 +4229,9 @@
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
     </row>
-    <row r="5" spans="1:22" ht="30" customHeight="1">
+    <row r="5" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
@@ -4240,9 +4242,9 @@
       <c r="H5" s="18"/>
       <c r="I5" s="18"/>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
@@ -4254,12 +4256,12 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="15" thickBot="1">
+    <row r="8" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="V8" s="12">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="15" thickBot="1">
+    <row r="9" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="20" t="s">
         <v>3</v>
       </c>
@@ -4274,7 +4276,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="15" thickBot="1">
+    <row r="10" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="20" t="s">
         <v>5</v>
       </c>
@@ -4289,7 +4291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="15" thickBot="1">
+    <row r="11" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="20" t="s">
         <v>15</v>
       </c>
@@ -4301,7 +4303,7 @@
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:22" ht="15" thickBot="1">
+    <row r="12" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="20" t="s">
         <v>16</v>
       </c>
@@ -4313,7 +4315,7 @@
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:22" ht="15" thickBot="1">
+    <row r="13" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="20" t="s">
         <v>17</v>
       </c>
@@ -4325,7 +4327,7 @@
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:22" ht="15" thickBot="1">
+    <row r="14" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="20" t="s">
         <v>18</v>
       </c>
@@ -4337,16 +4339,16 @@
       </c>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:22" ht="15" thickBot="1">
+    <row r="15" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:22" ht="15.6" thickTop="1" thickBot="1">
+    <row r="16" spans="1:22" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -4356,8 +4358,8 @@
       </c>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:9" ht="15" thickTop="1"/>
-    <row r="18" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1">
+    <row r="17" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="18" t="s">
         <v>9</v>
       </c>
@@ -4370,8 +4372,8 @@
       <c r="H18" s="18"/>
       <c r="I18" s="18"/>
     </row>
-    <row r="19" spans="1:9" ht="15" thickBot="1"/>
-    <row r="20" spans="1:9" ht="15" thickBot="1">
+    <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="20" t="s">
         <v>3</v>
       </c>
@@ -4382,7 +4384,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" thickBot="1">
+    <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="20" t="s">
         <v>5</v>
       </c>
@@ -4393,7 +4395,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15" thickBot="1">
+    <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="20" t="s">
         <v>15</v>
       </c>
@@ -4404,7 +4406,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15" thickBot="1">
+    <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="20" t="s">
         <v>16</v>
       </c>
@@ -4415,7 +4417,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15" thickBot="1">
+    <row r="24" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="20" t="s">
         <v>17</v>
       </c>
@@ -4426,7 +4428,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15" thickBot="1">
+    <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="20" t="s">
         <v>18</v>
       </c>
@@ -4437,16 +4439,16 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15" thickBot="1">
+    <row r="26" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
+    <row r="27" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -4455,13 +4457,13 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15" thickTop="1"/>
-    <row r="29" spans="1:9">
+    <row r="28" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>14</v>
       </c>
@@ -4469,6 +4471,12 @@
   </sheetData>
   <sheetProtection sheet="1" selectLockedCells="1"/>
   <mergeCells count="16">
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="A7:C7"/>
@@ -4479,12 +4487,6 @@
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:D14">
     <cfRule type="containsBlanks" dxfId="4" priority="4">
@@ -4525,8 +4527,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F7262808F74C1A479C3BB44A303B6A0F" ma:contentTypeVersion="15" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="cab4a3c0111c554b2187f2cf1b3f650e">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="81e70d26-bf48-4cf6-8ac1-a02ba5208bf1" xmlns:ns3="28ecda99-baeb-4159-826c-8d3ebe501c98" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5e122d3143e7eb9975e5aea102f87885" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F7262808F74C1A479C3BB44A303B6A0F" ma:contentTypeVersion="16" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="53ca5ba934d9ea82b208c5ebaa87ee73">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="81e70d26-bf48-4cf6-8ac1-a02ba5208bf1" xmlns:ns3="28ecda99-baeb-4159-826c-8d3ebe501c98" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="61005504990099e8d9d64d1794496304" ns2:_="" ns3:_="">
     <xsd:import namespace="81e70d26-bf48-4cf6-8ac1-a02ba5208bf1"/>
     <xsd:import namespace="28ecda99-baeb-4159-826c-8d3ebe501c98"/>
     <xsd:element name="properties">
@@ -4548,6 +4550,7 @@
                 <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceBillingMetadata" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -4608,6 +4611,11 @@
       </xsd:simpleType>
     </xsd:element>
     <xsd:element name="MediaServiceSearchProperties" ma:index="21" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceBillingMetadata" ma:index="22" nillable="true" ma:displayName="MediaServiceBillingMetadata" ma:hidden="true" ma:internalName="MediaServiceBillingMetadata" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
@@ -4754,6 +4762,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="81e70d26-bf48-4cf6-8ac1-a02ba5208bf1">
@@ -4764,23 +4781,25 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6AC339D-76D8-47EE-95CA-4515914DFB0E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5EFEAD1-5A80-4A10-BED5-F661AEACDE9F}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F93ABB94-F41D-4E9C-B693-359705AA0110}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2DDAAA01-1A11-4E26-A5D2-54446DBC64D4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2DDAAA01-1A11-4E26-A5D2-54446DBC64D4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F93ABB94-F41D-4E9C-B693-359705AA0110}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="81e70d26-bf48-4cf6-8ac1-a02ba5208bf1"/>
+    <ds:schemaRef ds:uri="28ecda99-baeb-4159-826c-8d3ebe501c98"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>